--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp8a</t>
+  </si>
+  <si>
+    <t>Tgfbr1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp8a</t>
-  </si>
-  <si>
-    <t>Tgfbr1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H2">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I2">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J2">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N2">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O2">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P2">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q2">
-        <v>4.585939204617334</v>
+        <v>2.683315278902556</v>
       </c>
       <c r="R2">
-        <v>41.273452841556</v>
+        <v>24.149837510123</v>
       </c>
       <c r="S2">
-        <v>0.02919753818259703</v>
+        <v>0.009104382936875811</v>
       </c>
       <c r="T2">
-        <v>0.03046969159963666</v>
+        <v>0.01081706290934005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H3">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I3">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J3">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>49.753537</v>
       </c>
       <c r="O3">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P3">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q3">
-        <v>6.919655587910666</v>
+        <v>5.027998470316779</v>
       </c>
       <c r="R3">
-        <v>62.27690029119601</v>
+        <v>45.251986232851</v>
       </c>
       <c r="S3">
-        <v>0.04405573192837415</v>
+        <v>0.01705980055333339</v>
       </c>
       <c r="T3">
-        <v>0.04597526533431961</v>
+        <v>0.02026902175421081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H4">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I4">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J4">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N4">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O4">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P4">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q4">
-        <v>32.62975626629466</v>
+        <v>28.74719533357411</v>
       </c>
       <c r="R4">
-        <v>293.6678063966519</v>
+        <v>258.724758002167</v>
       </c>
       <c r="S4">
-        <v>0.2077455700927615</v>
+        <v>0.09753810025077289</v>
       </c>
       <c r="T4">
-        <v>0.2167971632515943</v>
+        <v>0.1158865761452888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H5">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I5">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J5">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N5">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O5">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P5">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q5">
-        <v>4.647563223334</v>
+        <v>3.130154934630667</v>
       </c>
       <c r="R5">
-        <v>27.885379340004</v>
+        <v>18.780929607784</v>
       </c>
       <c r="S5">
-        <v>0.02958988303479947</v>
+        <v>0.010620492269654</v>
       </c>
       <c r="T5">
-        <v>0.02058608742744504</v>
+        <v>0.008412251096022054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H6">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I6">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J6">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N6">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O6">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P6">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q6">
-        <v>24.626028923992</v>
+        <v>38.75073785951923</v>
       </c>
       <c r="R6">
-        <v>221.634260315928</v>
+        <v>348.756640735673</v>
       </c>
       <c r="S6">
-        <v>0.1567878220169281</v>
+        <v>0.1314797255967051</v>
       </c>
       <c r="T6">
-        <v>0.1636191569836522</v>
+        <v>0.1562131638072735</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.710799</v>
       </c>
       <c r="I7">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J7">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N7">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O7">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P7">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q7">
-        <v>2.604186440210333</v>
+        <v>2.097030879844333</v>
       </c>
       <c r="R7">
-        <v>23.437677961893</v>
+        <v>18.873277918599</v>
       </c>
       <c r="S7">
-        <v>0.0165802095557844</v>
+        <v>0.007115143088353332</v>
       </c>
       <c r="T7">
-        <v>0.01730261875719428</v>
+        <v>0.008453615245459432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.710799</v>
       </c>
       <c r="I8">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J8">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>49.753537</v>
       </c>
       <c r="O8">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P8">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q8">
         <v>3.929418260673666</v>
@@ -948,10 +948,10 @@
         <v>35.364764346063</v>
       </c>
       <c r="S8">
-        <v>0.02501763206670918</v>
+        <v>0.01333236121957204</v>
       </c>
       <c r="T8">
-        <v>0.0261076645866041</v>
+        <v>0.01584039149518076</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.710799</v>
       </c>
       <c r="I9">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J9">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N9">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O9">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P9">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q9">
-        <v>18.52924014572566</v>
+        <v>22.46614730568566</v>
       </c>
       <c r="R9">
-        <v>166.763161311531</v>
+        <v>202.195325751171</v>
       </c>
       <c r="S9">
-        <v>0.1179710790986115</v>
+        <v>0.07622675195695887</v>
       </c>
       <c r="T9">
-        <v>0.1231111464032106</v>
+        <v>0.09056622255566395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.710799</v>
       </c>
       <c r="I10">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J10">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N10">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O10">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P10">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q10">
-        <v>2.6391804570895</v>
+        <v>2.446239399532</v>
       </c>
       <c r="R10">
-        <v>15.835082742537</v>
+        <v>14.677436397192</v>
       </c>
       <c r="S10">
-        <v>0.01680300778716156</v>
+        <v>0.008299993826189985</v>
       </c>
       <c r="T10">
-        <v>0.01169008295652061</v>
+        <v>0.006574236898683574</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.710799</v>
       </c>
       <c r="I11">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J11">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N11">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O11">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P11">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q11">
-        <v>13.984217351926</v>
+        <v>30.28399031119433</v>
       </c>
       <c r="R11">
-        <v>125.857956167334</v>
+        <v>272.555912800749</v>
       </c>
       <c r="S11">
-        <v>0.08903404556159303</v>
+        <v>0.1027523850132568</v>
       </c>
       <c r="T11">
-        <v>0.09291330978536769</v>
+        <v>0.1220817512267927</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H12">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I12">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J12">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N12">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O12">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P12">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q12">
-        <v>1.311998155313444</v>
+        <v>0.8637489990191108</v>
       </c>
       <c r="R12">
-        <v>11.807983397821</v>
+        <v>7.773740991171999</v>
       </c>
       <c r="S12">
-        <v>0.008353167045191484</v>
+        <v>0.002930666295624195</v>
       </c>
       <c r="T12">
-        <v>0.008717119304905527</v>
+        <v>0.003481971475260444</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H13">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I13">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J13">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>49.753537</v>
       </c>
       <c r="O13">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P13">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q13">
-        <v>1.979654540034555</v>
+        <v>1.618493614951555</v>
       </c>
       <c r="R13">
-        <v>17.816890860311</v>
+        <v>14.566442534564</v>
       </c>
       <c r="S13">
-        <v>0.01260396975232767</v>
+        <v>0.005491485017531741</v>
       </c>
       <c r="T13">
-        <v>0.01315313191416517</v>
+        <v>0.006524521135830326</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H14">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I14">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J14">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N14">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O14">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P14">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q14">
-        <v>9.335095412211885</v>
+        <v>9.253613017154221</v>
       </c>
       <c r="R14">
-        <v>84.01585870990698</v>
+        <v>83.28251715438799</v>
       </c>
       <c r="S14">
-        <v>0.05943423856596599</v>
+        <v>0.03139714409269394</v>
       </c>
       <c r="T14">
-        <v>0.06202382229073046</v>
+        <v>0.03730344880911037</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H15">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I15">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J15">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N15">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O15">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P15">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q15">
-        <v>1.329628262314833</v>
+        <v>1.007584987429333</v>
       </c>
       <c r="R15">
-        <v>7.977769573888999</v>
+        <v>6.045509924576</v>
       </c>
       <c r="S15">
-        <v>0.008465413566431462</v>
+        <v>0.003418696132776347</v>
       </c>
       <c r="T15">
-        <v>0.005889504314129454</v>
+        <v>0.002707871684261496</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H16">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I16">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J16">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N16">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O16">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P16">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q16">
-        <v>7.045297174555333</v>
+        <v>12.47371537015244</v>
       </c>
       <c r="R16">
-        <v>63.407674570998</v>
+        <v>112.263438331372</v>
       </c>
       <c r="S16">
-        <v>0.04485566076730995</v>
+        <v>0.04232282440619814</v>
       </c>
       <c r="T16">
-        <v>0.04681004752970885</v>
+        <v>0.05028442424675689</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H17">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I17">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J17">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N17">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O17">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P17">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q17">
-        <v>0.6209003984278333</v>
+        <v>4.451051662433999</v>
       </c>
       <c r="R17">
-        <v>3.725402390567</v>
+        <v>26.70630997460399</v>
       </c>
       <c r="S17">
-        <v>0.003953118931980935</v>
+        <v>0.01510224278348338</v>
       </c>
       <c r="T17">
-        <v>0.002750239054650565</v>
+        <v>0.01196214404964565</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H18">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I18">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J18">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>49.753537</v>
       </c>
       <c r="O18">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P18">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q18">
-        <v>0.9368673939661666</v>
+        <v>8.340384421457999</v>
       </c>
       <c r="R18">
-        <v>5.621204363797</v>
+        <v>50.042306528748</v>
       </c>
       <c r="S18">
-        <v>0.005964802472700868</v>
+        <v>0.02829859547654913</v>
       </c>
       <c r="T18">
-        <v>0.004149794882462015</v>
+        <v>0.0224146757767228</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H19">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I19">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J19">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N19">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O19">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P19">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q19">
-        <v>4.417814489548165</v>
+        <v>47.68550776938599</v>
       </c>
       <c r="R19">
-        <v>26.506886937289</v>
+        <v>286.113046616316</v>
       </c>
       <c r="S19">
-        <v>0.02812712979542787</v>
+        <v>0.1617950475985132</v>
       </c>
       <c r="T19">
-        <v>0.01956842993839487</v>
+        <v>0.128154188330846</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H20">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I20">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J20">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N20">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O20">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P20">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q20">
-        <v>0.62924380990075</v>
+        <v>5.192264000808</v>
       </c>
       <c r="R20">
-        <v>2.516975239603</v>
+        <v>20.769056003232</v>
       </c>
       <c r="S20">
-        <v>0.004006239364717664</v>
+        <v>0.01761714702121948</v>
       </c>
       <c r="T20">
-        <v>0.001858130445471442</v>
+        <v>0.009302761778848216</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H21">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I21">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J21">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N21">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O21">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P21">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q21">
-        <v>3.334172235691</v>
+        <v>64.279265849334</v>
       </c>
       <c r="R21">
-        <v>20.005033414146</v>
+        <v>385.6755950960039</v>
       </c>
       <c r="S21">
-        <v>0.02122784817141205</v>
+        <v>0.2180970144637382</v>
       </c>
       <c r="T21">
-        <v>0.01476850509477451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.062692</v>
-      </c>
-      <c r="H22">
-        <v>0.188076</v>
-      </c>
-      <c r="I22">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J22">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>10.99123566666667</v>
-      </c>
-      <c r="N22">
-        <v>32.973707</v>
-      </c>
-      <c r="O22">
-        <v>0.06247112414817082</v>
-      </c>
-      <c r="P22">
-        <v>0.06381790718517789</v>
-      </c>
-      <c r="Q22">
-        <v>0.6890625464146666</v>
-      </c>
-      <c r="R22">
-        <v>6.201562917731999</v>
-      </c>
-      <c r="S22">
-        <v>0.004387090432616967</v>
-      </c>
-      <c r="T22">
-        <v>0.004578238468790856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.062692</v>
-      </c>
-      <c r="H23">
-        <v>0.188076</v>
-      </c>
-      <c r="I23">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J23">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>16.58451233333333</v>
-      </c>
-      <c r="N23">
-        <v>49.753537</v>
-      </c>
-      <c r="O23">
-        <v>0.09426175184784684</v>
-      </c>
-      <c r="P23">
-        <v>0.09629389277948987</v>
-      </c>
-      <c r="Q23">
-        <v>1.039716247201333</v>
-      </c>
-      <c r="R23">
-        <v>9.357446224812</v>
-      </c>
-      <c r="S23">
-        <v>0.006619615627734978</v>
-      </c>
-      <c r="T23">
-        <v>0.006908036061938963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.062692</v>
-      </c>
-      <c r="H24">
-        <v>0.188076</v>
-      </c>
-      <c r="I24">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J24">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>78.20455633333331</v>
-      </c>
-      <c r="N24">
-        <v>234.613669</v>
-      </c>
-      <c r="O24">
-        <v>0.4444929301687812</v>
-      </c>
-      <c r="P24">
-        <v>0.4540755260734272</v>
-      </c>
-      <c r="Q24">
-        <v>4.902800045649332</v>
-      </c>
-      <c r="R24">
-        <v>44.12520041084399</v>
-      </c>
-      <c r="S24">
-        <v>0.03121491261601444</v>
-      </c>
-      <c r="T24">
-        <v>0.03257496418949694</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.062692</v>
-      </c>
-      <c r="H25">
-        <v>0.188076</v>
-      </c>
-      <c r="I25">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J25">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>11.1389315</v>
-      </c>
-      <c r="N25">
-        <v>22.277863</v>
-      </c>
-      <c r="O25">
-        <v>0.06331058615409581</v>
-      </c>
-      <c r="P25">
-        <v>0.04311697781563077</v>
-      </c>
-      <c r="Q25">
-        <v>0.698321893598</v>
-      </c>
-      <c r="R25">
-        <v>4.189931361588</v>
-      </c>
-      <c r="S25">
-        <v>0.004446042400985649</v>
-      </c>
-      <c r="T25">
-        <v>0.003093172672064214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.062692</v>
-      </c>
-      <c r="H26">
-        <v>0.188076</v>
-      </c>
-      <c r="I26">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J26">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>59.02182200000001</v>
-      </c>
-      <c r="N26">
-        <v>177.065466</v>
-      </c>
-      <c r="O26">
-        <v>0.3354636076811054</v>
-      </c>
-      <c r="P26">
-        <v>0.3426956961462742</v>
-      </c>
-      <c r="Q26">
-        <v>3.700196064824</v>
-      </c>
-      <c r="R26">
-        <v>33.301764583416</v>
-      </c>
-      <c r="S26">
-        <v>0.02355823116386231</v>
-      </c>
-      <c r="T26">
-        <v>0.02458467675277091</v>
+        <v>0.1727496995788022</v>
       </c>
     </row>
   </sheetData>
